--- a/Repasos.xlsx
+++ b/Repasos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correouss-my.sharepoint.com/personal/eramirezd1_correo_uss_cl/Documents/Programacion/Java/Android/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{03080AC2-A5D8-0B40-AD8F-C727906AFFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87C5DE3E-C903-49C4-BB8B-FE84F4E67B62}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{03080AC2-A5D8-0B40-AD8F-C727906AFFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35A914AD-389A-4DE5-A998-729F66C45262}"/>
   <bookViews>
     <workbookView xWindow="34656" yWindow="-7608" windowWidth="15576" windowHeight="11784" xr2:uid="{7D8BD01A-2B24-1A4B-8A77-D38B9DC6F9DE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>M3 - CLASE 2 - CONSULTA DE DATOS</t>
   </si>
@@ -58,13 +58,34 @@
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1B4DjpdCRumB86P0ZXHYJS2RLknIXPj8u</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>M4 Clase 4</t>
+  </si>
+  <si>
+    <t>M4 Clase 5</t>
+  </si>
+  <si>
+    <t>M4 Clase 6</t>
+  </si>
+  <si>
+    <t>M4 Clase 7</t>
+  </si>
+  <si>
+    <t>M4 Clase 8</t>
+  </si>
+  <si>
+    <t>M4 Clase 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,6 +126,12 @@
       <color rgb="FF747487"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -476,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE476355-B556-2447-94CD-ED30E5CA23AC}">
-  <dimension ref="A3:C8"/>
+  <dimension ref="A3:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -520,14 +547,48 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <v>6.9444444444444448E-2</v>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{39E610B7-3E8C-7B4F-A546-1C36BAC3743D}"/>
     <hyperlink ref="C6" r:id="rId2" xr:uid="{73F80E97-7F34-AF42-9B50-5F9212CCD842}"/>

--- a/Repasos.xlsx
+++ b/Repasos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correouss-my.sharepoint.com/personal/eramirezd1_correo_uss_cl/Documents/Programacion/Java/Android/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{03080AC2-A5D8-0B40-AD8F-C727906AFFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35A914AD-389A-4DE5-A998-729F66C45262}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{4BA7B4F1-1756-4A9B-88D0-06AB81129E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F13B2C1-C7B4-4D90-9D0B-BC5EA997F668}"/>
   <bookViews>
-    <workbookView xWindow="34656" yWindow="-7608" windowWidth="15576" windowHeight="11784" xr2:uid="{7D8BD01A-2B24-1A4B-8A77-D38B9DC6F9DE}"/>
+    <workbookView xWindow="3060" yWindow="2820" windowWidth="21600" windowHeight="11295" xr2:uid="{7D8BD01A-2B24-1A4B-8A77-D38B9DC6F9DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>M3 - CLASE 2 - CONSULTA DE DATOS</t>
   </si>
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,10 +180,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,16 +502,16 @@
   <dimension ref="A3:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.6875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="128.5" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="128.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" ht="18">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -535,7 +531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" ht="18">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -543,7 +539,7 @@
         <v>3.5416666666666666E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -554,35 +550,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
-        <v>3.3333333333333333E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="B11" s="3">
+        <v>0.10625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
